--- a/6-combined-use-cases/3-combine-use-cases-challenge/combine-use-cases-challenge.xlsx
+++ b/6-combined-use-cases/3-combine-use-cases-challenge/combine-use-cases-challenge.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\.shortcut-targets-by-id\1ADXNizn78g-e61ZCkppsavo6N2ySroi1\Data Visualization with Python in Excel\Exercise Files\5-practical-use-cases-python-in-excel-data-viz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\global-excel-summit-python-in-excel-2025\6-combined-use-cases\3-combine-use-cases-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54023ADD-EF3B-4E78-9091-D12296B4F485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E521A2-8D64-4509-B250-C21AEB703F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{D516E1A2-457A-473F-9D7A-8ADE23876DA2}"/>
   </bookViews>
@@ -36,6 +36,43 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
@@ -53,6 +90,29 @@
 </code>
     </initialization>
   </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>#start_date = ___
+#end_date = ___
+#agg_type = ___
+#sales_df = ___</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Filter sales_df to include only rows between start_date and end_date
+#sales_df_filtered = sales_df[____['Date'].between(start_date, end_date)]
+# Calculate cumulative value for Sales based on agg_type (e.g., 'sum' or 'mean')
+#sales_df_filtered['cum_value'] = ____(sales_df_filtered['Sales'].expanding(), ____)()
+# Set the plot title based on agg_type
+#if agg_type == 'sum':
+#    title = 'Cumulative Total Sales Over Time'
+#elif agg_type == 'mean':
+ #   title = ____
+# Create a line plot
+#plt.figure(figsize=(12, 5))
+#plt.plot(sales_df_filtered['Date'], ____)
+#plt.title(____)</code>
+    </pythonScript>
+  </pythonScripts>
 </python>
 </file>
 
@@ -175,6 +235,124 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <fb>0</fb>
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <fb>0</fb>
+    <v>&lt;class 'NoneType'&gt;</v>
+    <v>NoneType</v>
+    <v>None</v>
+    <v>0</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="2">
+    <spb s="0">
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="1">
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="0">
+      <rpv i="0">0;-0;"None"</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,7 +686,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -564,6 +742,10 @@
       <c r="B5" s="3">
         <v>1250</v>
       </c>
+      <c r="D5" cm="1" vm="1">
+        <f t="array" ref="D5">_xlfn._xlws.PY(0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
@@ -571,6 +753,10 @@
       </c>
       <c r="B6" s="3">
         <v>1400</v>
+      </c>
+      <c r="D6" cm="1" vm="1">
+        <f t="array" ref="D6">_xlfn._xlws.PY(1,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
